--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\FRC 2020 Engineering\GitHub\7738-2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48FDE30B-F17A-4202-A752-05CB9F0F4B17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB33056-D3CB-4502-BA80-E81A6A0B0F39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5503" yWindow="5426" windowWidth="11229" windowHeight="6180" xr2:uid="{67A604BA-13A3-4C2F-9600-D19860CA819F}"/>
+    <workbookView xWindow="-2040" yWindow="4200" windowWidth="11229" windowHeight="6180" xr2:uid="{67A604BA-13A3-4C2F-9600-D19860CA819F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,30 +32,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="175">
   <si>
     <t>Part Name</t>
   </si>
@@ -129,9 +107,6 @@
     <t>6*6*14 keyslot/10mmhole/20mm belt width/factory cheese grating</t>
   </si>
   <si>
-    <t>F6900</t>
-  </si>
-  <si>
     <t>10mm ID/19mm OD/Flanged</t>
   </si>
   <si>
@@ -181,13 +156,415 @@
   </si>
   <si>
     <t>Turrt Column Sub Assembly</t>
+  </si>
+  <si>
+    <t>Turret Sensor Mount</t>
+  </si>
+  <si>
+    <t>3D print</t>
+  </si>
+  <si>
+    <t>Column Mount</t>
+  </si>
+  <si>
+    <t>In house fabrication</t>
+  </si>
+  <si>
+    <t>Set Screw/10mm belt width/12mm hole</t>
+  </si>
+  <si>
+    <t>52 tooth Belt</t>
+  </si>
+  <si>
+    <t>10mm Width/HTD5</t>
+  </si>
+  <si>
+    <t>78 tooth Belt</t>
+  </si>
+  <si>
+    <t>Vex Versa Planatery Geabox</t>
+  </si>
+  <si>
+    <t>With 775 Pro/36:1 reduction</t>
+  </si>
+  <si>
+    <t>40 tooth pulley</t>
+  </si>
+  <si>
+    <t>25mm Belt width/mounting holes/32mm shaft</t>
+  </si>
+  <si>
+    <t>25mm Belt width/Hex Shaft</t>
+  </si>
+  <si>
+    <t>112 tooth Belt</t>
+  </si>
+  <si>
+    <t>25mm Width</t>
+  </si>
+  <si>
+    <t>F6804zz</t>
+  </si>
+  <si>
+    <t>20mmID/32mmOD/Flanged</t>
+  </si>
+  <si>
+    <t>Slewing Bearing</t>
+  </si>
+  <si>
+    <t>350mmOD/296mmID</t>
+  </si>
+  <si>
+    <t>Slewing Spacer Plates</t>
+  </si>
+  <si>
+    <t>3mm plywood</t>
+  </si>
+  <si>
+    <t>20 tooth pulleu</t>
+  </si>
+  <si>
+    <t>96 tooth belt</t>
+  </si>
+  <si>
+    <t>10mm Belt Width/double sided belt</t>
+  </si>
+  <si>
+    <t>F6800</t>
+  </si>
+  <si>
+    <t>Column Spacer</t>
+  </si>
+  <si>
+    <t>Turret Idle Pin</t>
+  </si>
+  <si>
+    <t>Column Axle</t>
+  </si>
+  <si>
+    <t>Column Plate</t>
+  </si>
+  <si>
+    <t>Bearing Plate</t>
+  </si>
+  <si>
+    <t>Idle Drive Axle</t>
+  </si>
+  <si>
+    <t>Shifter Sub Assembly</t>
+  </si>
+  <si>
+    <t>Spacer1_2019</t>
+  </si>
+  <si>
+    <t>1.625In Colson</t>
+  </si>
+  <si>
+    <t>GearboxBrace</t>
+  </si>
+  <si>
+    <t>3D printing</t>
+  </si>
+  <si>
+    <t>57 Sport Gearbox</t>
+  </si>
+  <si>
+    <t>CaseSheet_2019</t>
+  </si>
+  <si>
+    <t>MainHolder2_2019</t>
+  </si>
+  <si>
+    <t>Axle1_2019</t>
+  </si>
+  <si>
+    <t>Axle2_2019</t>
+  </si>
+  <si>
+    <t>Aluminium 7075/made from vex axle</t>
+  </si>
+  <si>
+    <t>F6801_2019</t>
+  </si>
+  <si>
+    <t>12mmID/21mmOD</t>
+  </si>
+  <si>
+    <t>Mini V Gantry Kit</t>
+  </si>
+  <si>
+    <t>Elevator Sub Assembly</t>
+  </si>
+  <si>
+    <t>Aluminium extrusion profile 2020</t>
+  </si>
+  <si>
+    <t>Second Stage Extrusion</t>
+  </si>
+  <si>
+    <t>Final Stage</t>
+  </si>
+  <si>
+    <t>Final Extrusion Mid</t>
+  </si>
+  <si>
+    <t>Bottom Pneumatic Extrusion</t>
+  </si>
+  <si>
+    <t>SC32-600</t>
+  </si>
+  <si>
+    <t>Pneumatic Bottom Plate</t>
+  </si>
+  <si>
+    <t>Top Plate</t>
+  </si>
+  <si>
+    <t>M6 Eye Bolt</t>
+  </si>
+  <si>
+    <t>Up extrusion</t>
+  </si>
+  <si>
+    <t>Pulley Plate</t>
+  </si>
+  <si>
+    <t>608 Bearing</t>
+  </si>
+  <si>
+    <t>Winch Sub Assembly</t>
+  </si>
+  <si>
+    <t>50:1/775pro</t>
+  </si>
+  <si>
+    <t>Special 3d printer pulley</t>
+  </si>
+  <si>
+    <t>Small connector</t>
+  </si>
+  <si>
+    <t>Support Plate</t>
+  </si>
+  <si>
+    <t>Smol Hex Shaft</t>
+  </si>
+  <si>
+    <t>0_500_Hex_ID</t>
+  </si>
+  <si>
+    <t>Left Plate</t>
+  </si>
+  <si>
+    <t>Right Piece</t>
+  </si>
+  <si>
+    <t>Pulley</t>
+  </si>
+  <si>
+    <t>31mm spacer</t>
+  </si>
+  <si>
+    <t>An Extrusion</t>
+  </si>
+  <si>
+    <t>Bottom Pneumatic extrusion</t>
+  </si>
+  <si>
+    <t>Spinner Sub Assembly</t>
+  </si>
+  <si>
+    <t>Redline Motor</t>
+  </si>
+  <si>
+    <t>2in OD Flex Wheel</t>
+  </si>
+  <si>
+    <t>Back Plate Spinning thing</t>
+  </si>
+  <si>
+    <t>Small Spacer</t>
+  </si>
+  <si>
+    <t>Wood Electronic</t>
+  </si>
+  <si>
+    <t>Turret Support 2</t>
+  </si>
+  <si>
+    <t>Turret Support</t>
+  </si>
+  <si>
+    <t>Turret Drive Gear</t>
+  </si>
+  <si>
+    <t>20:1/with 775pro</t>
+  </si>
+  <si>
+    <t>Small Support</t>
+  </si>
+  <si>
+    <t>Pneumatic Spacer</t>
+  </si>
+  <si>
+    <t>Cover Spacer</t>
+  </si>
+  <si>
+    <t>Turret Bracket 2</t>
+  </si>
+  <si>
+    <t>turret Bracket</t>
+  </si>
+  <si>
+    <t>Storage Plate Spacer</t>
+  </si>
+  <si>
+    <t>Mounting Bracket</t>
+  </si>
+  <si>
+    <t>Storage Side Plate</t>
+  </si>
+  <si>
+    <t>Mounting Bracket 2</t>
+  </si>
+  <si>
+    <t>KFL08</t>
+  </si>
+  <si>
+    <t>8mmID bearing block</t>
+  </si>
+  <si>
+    <t>Back Ultrasonic sensor</t>
+  </si>
+  <si>
+    <t>HC-SR04</t>
+  </si>
+  <si>
+    <t>Ultranonic sensor</t>
+  </si>
+  <si>
+    <t>Mini CIM</t>
+  </si>
+  <si>
+    <t>Motor Spacer</t>
+  </si>
+  <si>
+    <t>Motor Mount</t>
+  </si>
+  <si>
+    <t>Storage Axle</t>
+  </si>
+  <si>
+    <t>Storage Axle Intake</t>
+  </si>
+  <si>
+    <t>45 tooth pulley</t>
+  </si>
+  <si>
+    <t>10mm belt width/12mm hole/set screw</t>
+  </si>
+  <si>
+    <t>73 tooth belt</t>
+  </si>
+  <si>
+    <t>79 tooth belt</t>
+  </si>
+  <si>
+    <t>20mm Belt width/12mm hole/set screw</t>
+  </si>
+  <si>
+    <t>75 tooth belt</t>
+  </si>
+  <si>
+    <t>20mm Width/HTD5/double sided</t>
+  </si>
+  <si>
+    <t>304 tooth belt</t>
+  </si>
+  <si>
+    <t>10mm belt width/HTD5</t>
+  </si>
+  <si>
+    <t>20mm Belt width/HTD5/double sided</t>
+  </si>
+  <si>
+    <t>239 tooth belt</t>
+  </si>
+  <si>
+    <t>Intake Sub Assembly</t>
+  </si>
+  <si>
+    <t>Storage System Sub Assembly</t>
+  </si>
+  <si>
+    <t>Protection Plates</t>
+  </si>
+  <si>
+    <t>F608</t>
+  </si>
+  <si>
+    <t>Mecanum Wheel</t>
+  </si>
+  <si>
+    <t>3.25 Omni Wheel</t>
+  </si>
+  <si>
+    <t>Intake Axle</t>
+  </si>
+  <si>
+    <t>118mm Spacer</t>
+  </si>
+  <si>
+    <t>61 tooth Belt</t>
+  </si>
+  <si>
+    <t>8mm hole/set screw/10mm belt width</t>
+  </si>
+  <si>
+    <t>30 tooth Gear</t>
+  </si>
+  <si>
+    <t>Saftey Axle</t>
+  </si>
+  <si>
+    <t>Intake Plate Spacer</t>
+  </si>
+  <si>
+    <t>Intkake Arm</t>
+  </si>
+  <si>
+    <t>MF148ZZ</t>
+  </si>
+  <si>
+    <t>50mm Cylinder</t>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?spm=a230r.1.14.1.742f3660ieXtXX&amp;id=19449197232&amp;cm_id=140105335569ed55e27b&amp;abbucket=19&amp;skuId=30808361140</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>PolyCarb Cover</t>
+  </si>
+  <si>
+    <t>Andy Mark Air Tank</t>
+  </si>
+  <si>
+    <t>tank Mount</t>
+  </si>
+  <si>
+    <t>3D printed</t>
+  </si>
+  <si>
+    <t>Compressor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,8 +572,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -206,6 +591,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -219,10 +610,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -230,8 +622,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -544,23 +953,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E2E639-865D-4C63-A5F2-8E26BD3063C6}">
-  <dimension ref="A2:U38"/>
+  <dimension ref="A2:U175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="69" workbookViewId="0">
-      <selection activeCell="R32" sqref="R32"/>
+      <selection activeCell="T68" sqref="T68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="R2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="U2" s="1"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
@@ -591,10 +996,6 @@
       </c>
       <c r="O4" t="s">
         <v>5</v>
-      </c>
-      <c r="R4" t="e" cm="1">
-        <f t="array" ref="R4">_xlfn._xlws.FILTER(G6:H38,T2, "")</f>
-        <v>#VALUE!</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.4">
@@ -694,11 +1095,11 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -857,7 +1258,7 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -869,13 +1270,13 @@
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="O15">
         <f t="shared" si="0"/>
@@ -884,7 +1285,7 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -896,7 +1297,7 @@
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -910,11 +1311,11 @@
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="A17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -923,7 +1324,7 @@
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -938,7 +1339,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -959,11 +1360,11 @@
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="A19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -972,13 +1373,13 @@
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O19">
         <f t="shared" si="0"/>
@@ -987,7 +1388,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -999,7 +1400,7 @@
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -1014,7 +1415,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1036,11 +1437,11 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="A22" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -1049,13 +1450,13 @@
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O22">
         <f t="shared" si="0"/>
@@ -1064,7 +1465,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1076,7 +1477,7 @@
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -1091,7 +1492,7 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1118,7 +1519,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1136,255 +1537,3738 @@
       <c r="O25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A26" s="1"/>
+      <c r="A26" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="G26" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
+      <c r="M26">
+        <v>1</v>
+      </c>
       <c r="O26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A27" s="1"/>
+      <c r="A27" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="G27" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
+      <c r="M27">
+        <v>2</v>
+      </c>
       <c r="O27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A28" s="1"/>
+      <c r="A28" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+      <c r="G28" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
+      <c r="I28" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
+      <c r="M28">
+        <v>10</v>
+      </c>
       <c r="O28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A29" s="1"/>
+      <c r="A29" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
+      <c r="G29" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
+      <c r="I29" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
+      <c r="M29">
+        <v>2</v>
+      </c>
       <c r="O29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A30" s="1"/>
+      <c r="A30" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="G30" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
+      <c r="I30" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
+      <c r="M30">
+        <v>2</v>
+      </c>
       <c r="O30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
+      <c r="A31" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="G31" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
+      <c r="I31" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
+      <c r="M31">
+        <v>1</v>
+      </c>
       <c r="O31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A32" s="1"/>
+      <c r="A32" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
+      <c r="G32" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
+      <c r="I32" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
+      <c r="M32">
+        <v>1</v>
+      </c>
       <c r="O32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A33" s="1"/>
+      <c r="A33" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
+      <c r="G33" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
+      <c r="I33" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
+      <c r="M33">
+        <v>1</v>
+      </c>
       <c r="O33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A34" s="1"/>
+      <c r="A34" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
+      <c r="G34" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
+      <c r="I34" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
+      <c r="M34">
+        <v>1</v>
+      </c>
       <c r="O34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A35" s="1"/>
+      <c r="A35" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
+      <c r="G35" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
+      <c r="I35" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
+      <c r="M35">
+        <v>4</v>
+      </c>
       <c r="O35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A36" s="1"/>
+      <c r="A36" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
+      <c r="G36" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
+      <c r="I36" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
+      <c r="M36">
+        <v>2</v>
+      </c>
       <c r="O36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A37" s="1"/>
+      <c r="A37" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
+      <c r="G37" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
+      <c r="I37" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
+      <c r="M37">
+        <v>4</v>
+      </c>
       <c r="O37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A38" s="1"/>
+      <c r="A38" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
+      <c r="G38" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
+      <c r="I38" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
+      <c r="M38">
+        <v>3</v>
+      </c>
       <c r="O38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A39" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <f t="shared" ref="O39:O69" si="1">M39*N39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A40" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40">
+        <v>4</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A41" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41">
+        <v>2</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A42" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42">
+        <v>4</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A43" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43">
+        <v>2</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A44" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A45" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A46" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A47" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47">
+        <v>10</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A48" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48">
+        <v>4</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A49" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49">
+        <v>2</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A50" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A51" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51">
+        <v>2</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A52" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A53" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A54" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A55" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55">
+        <v>2</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A56" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56">
+        <v>9</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A57" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A58" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58">
+        <v>2</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A59" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59">
+        <v>2</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A60" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60">
+        <v>2</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A61" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61">
+        <v>2</v>
+      </c>
+      <c r="O61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A62" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A63" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A64" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A65" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65">
+        <v>1</v>
+      </c>
+      <c r="O65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A66" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66">
+        <v>3</v>
+      </c>
+      <c r="O66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A67" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="O67">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A68" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68">
+        <v>4</v>
+      </c>
+      <c r="O68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A69" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69">
+        <v>2</v>
+      </c>
+      <c r="O69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A70" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A71" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H71" s="1"/>
+      <c r="I71" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A72" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A73" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A74" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A75" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A76" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A77" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A78" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A79" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A80" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A81" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A82" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A83" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A84" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A85" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A86" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A87" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A88" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A89" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
+      <c r="K89" s="2"/>
+      <c r="L89" s="2"/>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A90" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A91" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A92" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A93" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A94" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H94" s="1"/>
+      <c r="I94" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A95" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A96" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A97" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A98" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A99" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A100" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A101" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A102" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A103" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A104" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A105" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A106" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A107" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+      <c r="J107" s="1"/>
+      <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="M107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A108" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A109" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A110" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A111" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="M111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A112" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A113" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="M113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A114" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H114" s="1"/>
+      <c r="I114" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A115" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H115" s="1"/>
+      <c r="I115" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J115" s="1"/>
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
+      <c r="M115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A116" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A117" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J117" s="1"/>
+      <c r="K117" s="1"/>
+      <c r="L117" s="1"/>
+      <c r="M117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A118" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J118" s="1"/>
+      <c r="K118" s="1"/>
+      <c r="L118" s="1"/>
+      <c r="M118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A119" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H119" s="1"/>
+      <c r="I119" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J119" s="1"/>
+      <c r="K119" s="1"/>
+      <c r="L119" s="1"/>
+      <c r="M119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A120" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B120" s="2"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="2"/>
+      <c r="H120" s="2"/>
+      <c r="I120" s="2"/>
+      <c r="J120" s="2"/>
+      <c r="K120" s="2"/>
+      <c r="L120" s="2"/>
+      <c r="M120" s="2"/>
+      <c r="N120" s="2"/>
+      <c r="O120" s="2"/>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A121" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
+      <c r="G121" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H121" s="1"/>
+      <c r="I121" s="1"/>
+      <c r="J121" s="1"/>
+      <c r="K121" s="1"/>
+      <c r="L121" s="1"/>
+      <c r="M121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A122" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
+      <c r="G122" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H122" s="1"/>
+      <c r="I122" s="1"/>
+      <c r="J122" s="1"/>
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
+      <c r="M122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A123" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
+      <c r="G123" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H123" s="1"/>
+      <c r="I123" s="1"/>
+      <c r="J123" s="1"/>
+      <c r="K123" s="1"/>
+      <c r="L123" s="1"/>
+      <c r="M123">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A124" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B124" s="5"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1"/>
+      <c r="G124" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H124" s="1"/>
+      <c r="I124" s="1"/>
+      <c r="J124" s="1"/>
+      <c r="K124" s="1"/>
+      <c r="L124" s="1"/>
+      <c r="M124">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A125" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
+      <c r="G125" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H125" s="1"/>
+      <c r="I125" s="1"/>
+      <c r="J125" s="1"/>
+      <c r="K125" s="1"/>
+      <c r="L125" s="1"/>
+      <c r="M125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A126" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
+      <c r="G126" s="1"/>
+      <c r="H126" s="1"/>
+      <c r="I126" s="1"/>
+      <c r="J126" s="1"/>
+      <c r="K126" s="1"/>
+      <c r="L126" s="1"/>
+      <c r="M126">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A127" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+      <c r="F127" s="1"/>
+      <c r="G127" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H127" s="1"/>
+      <c r="I127" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J127" s="1"/>
+      <c r="K127" s="1"/>
+      <c r="L127" s="1"/>
+      <c r="M127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A128" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
+      <c r="G128" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H128" s="1"/>
+      <c r="I128" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J128" s="1"/>
+      <c r="K128" s="1"/>
+      <c r="L128" s="1"/>
+      <c r="M128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A129" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1"/>
+      <c r="G129" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H129" s="1"/>
+      <c r="I129" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J129" s="1"/>
+      <c r="K129" s="1"/>
+      <c r="L129" s="1"/>
+      <c r="M129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A130" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B130" s="5"/>
+      <c r="C130" s="5"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1"/>
+      <c r="F130" s="1"/>
+      <c r="G130" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H130" s="1"/>
+      <c r="I130" s="1"/>
+      <c r="J130" s="1"/>
+      <c r="K130" s="1"/>
+      <c r="L130" s="1"/>
+      <c r="M130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A131" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B131" s="1"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1"/>
+      <c r="F131" s="1"/>
+      <c r="G131" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H131" s="1"/>
+      <c r="I131" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J131" s="1"/>
+      <c r="K131" s="1"/>
+      <c r="L131" s="1"/>
+      <c r="M131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A132" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1"/>
+      <c r="F132" s="1"/>
+      <c r="G132" s="1"/>
+      <c r="H132" s="1"/>
+      <c r="I132" s="1"/>
+      <c r="J132" s="1"/>
+      <c r="K132" s="1"/>
+      <c r="L132" s="1"/>
+      <c r="M132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A133" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B133" s="1"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="1"/>
+      <c r="F133" s="1"/>
+      <c r="G133" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H133" s="1"/>
+      <c r="I133" s="1"/>
+      <c r="J133" s="1"/>
+      <c r="K133" s="1"/>
+      <c r="L133" s="1"/>
+      <c r="M133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A134" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="1"/>
+      <c r="F134" s="1"/>
+      <c r="G134" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H134" s="1"/>
+      <c r="I134" s="1"/>
+      <c r="J134" s="1"/>
+      <c r="K134" s="1"/>
+      <c r="L134" s="1"/>
+      <c r="M134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A135" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
+      <c r="F135" s="1"/>
+      <c r="G135" s="1"/>
+      <c r="H135" s="1"/>
+      <c r="I135" s="1"/>
+      <c r="J135" s="1"/>
+      <c r="K135" s="1"/>
+      <c r="L135" s="1"/>
+      <c r="M135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A136" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="1"/>
+      <c r="F136" s="1"/>
+      <c r="G136" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H136" s="1"/>
+      <c r="I136" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="J136" s="1"/>
+      <c r="K136" s="1"/>
+      <c r="L136" s="1"/>
+      <c r="M136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A137" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
+      <c r="G137" s="2"/>
+      <c r="H137" s="2"/>
+      <c r="I137" s="2"/>
+      <c r="J137" s="2"/>
+      <c r="K137" s="2"/>
+      <c r="L137" s="2"/>
+      <c r="M137" s="2"/>
+      <c r="N137" s="2"/>
+      <c r="O137" s="2"/>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A138" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1"/>
+      <c r="F138" s="1"/>
+      <c r="G138" s="1"/>
+      <c r="H138" s="1"/>
+      <c r="I138" s="1"/>
+      <c r="J138" s="1"/>
+      <c r="K138" s="1"/>
+      <c r="L138" s="1"/>
+      <c r="M138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A139" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B139" s="1"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1"/>
+      <c r="G139" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H139" s="1"/>
+      <c r="I139" s="1"/>
+      <c r="J139" s="1"/>
+      <c r="K139" s="1"/>
+      <c r="L139" s="1"/>
+      <c r="M139">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A140" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+      <c r="E140" s="1"/>
+      <c r="F140" s="1"/>
+      <c r="G140" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H140" s="1"/>
+      <c r="I140" s="1"/>
+      <c r="J140" s="1"/>
+      <c r="K140" s="1"/>
+      <c r="L140" s="1"/>
+      <c r="M140">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A141" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="1"/>
+      <c r="F141" s="1"/>
+      <c r="G141" s="1"/>
+      <c r="H141" s="1"/>
+      <c r="I141" s="1"/>
+      <c r="J141" s="1"/>
+      <c r="K141" s="1"/>
+      <c r="L141" s="1"/>
+      <c r="M141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A142" s="1"/>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1"/>
+      <c r="F142" s="1"/>
+      <c r="G142" s="1"/>
+      <c r="H142" s="1"/>
+      <c r="I142" s="1"/>
+      <c r="J142" s="1"/>
+      <c r="K142" s="1"/>
+      <c r="L142" s="1"/>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A143" s="1"/>
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
+      <c r="G143" s="1"/>
+      <c r="H143" s="1"/>
+      <c r="I143" s="1"/>
+      <c r="J143" s="1"/>
+      <c r="K143" s="1"/>
+      <c r="L143" s="1"/>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+      <c r="H144" s="1"/>
+      <c r="I144" s="1"/>
+      <c r="J144" s="1"/>
+      <c r="K144" s="1"/>
+      <c r="L144" s="1"/>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A145" s="1"/>
+      <c r="B145" s="1"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+      <c r="E145" s="1"/>
+      <c r="F145" s="1"/>
+      <c r="G145" s="1"/>
+      <c r="H145" s="1"/>
+      <c r="I145" s="1"/>
+      <c r="J145" s="1"/>
+      <c r="K145" s="1"/>
+      <c r="L145" s="1"/>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A146" s="1"/>
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1"/>
+      <c r="G146" s="1"/>
+      <c r="H146" s="1"/>
+      <c r="I146" s="1"/>
+      <c r="J146" s="1"/>
+      <c r="K146" s="1"/>
+      <c r="L146" s="1"/>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A147" s="1"/>
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1"/>
+      <c r="G147" s="1"/>
+      <c r="H147" s="1"/>
+      <c r="I147" s="1"/>
+      <c r="J147" s="1"/>
+      <c r="K147" s="1"/>
+      <c r="L147" s="1"/>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A148" s="1"/>
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
+      <c r="G148" s="1"/>
+      <c r="H148" s="1"/>
+      <c r="I148" s="1"/>
+      <c r="J148" s="1"/>
+      <c r="K148" s="1"/>
+      <c r="L148" s="1"/>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A149" s="1"/>
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1"/>
+      <c r="G149" s="1"/>
+      <c r="H149" s="1"/>
+      <c r="I149" s="1"/>
+      <c r="J149" s="1"/>
+      <c r="K149" s="1"/>
+      <c r="L149" s="1"/>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A150" s="1"/>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1"/>
+      <c r="G150" s="1"/>
+      <c r="H150" s="1"/>
+      <c r="I150" s="1"/>
+      <c r="J150" s="1"/>
+      <c r="K150" s="1"/>
+      <c r="L150" s="1"/>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A151" s="1"/>
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1"/>
+      <c r="G151" s="1"/>
+      <c r="H151" s="1"/>
+      <c r="I151" s="1"/>
+      <c r="J151" s="1"/>
+      <c r="K151" s="1"/>
+      <c r="L151" s="1"/>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A152" s="1"/>
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1"/>
+      <c r="G152" s="1"/>
+      <c r="H152" s="1"/>
+      <c r="I152" s="1"/>
+      <c r="J152" s="1"/>
+      <c r="K152" s="1"/>
+      <c r="L152" s="1"/>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A153" s="1"/>
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+      <c r="E153" s="1"/>
+      <c r="F153" s="1"/>
+      <c r="G153" s="1"/>
+      <c r="H153" s="1"/>
+      <c r="I153" s="1"/>
+      <c r="J153" s="1"/>
+      <c r="K153" s="1"/>
+      <c r="L153" s="1"/>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A154" s="1"/>
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+      <c r="E154" s="1"/>
+      <c r="F154" s="1"/>
+      <c r="G154" s="1"/>
+      <c r="H154" s="1"/>
+      <c r="I154" s="1"/>
+      <c r="J154" s="1"/>
+      <c r="K154" s="1"/>
+      <c r="L154" s="1"/>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A155" s="1"/>
+      <c r="B155" s="1"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+      <c r="E155" s="1"/>
+      <c r="F155" s="1"/>
+      <c r="G155" s="1"/>
+      <c r="H155" s="1"/>
+      <c r="I155" s="1"/>
+      <c r="J155" s="1"/>
+      <c r="K155" s="1"/>
+      <c r="L155" s="1"/>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A156" s="1"/>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1"/>
+      <c r="G156" s="1"/>
+      <c r="H156" s="1"/>
+      <c r="I156" s="1"/>
+      <c r="J156" s="1"/>
+      <c r="K156" s="1"/>
+      <c r="L156" s="1"/>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A157" s="1"/>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1"/>
+      <c r="G157" s="1"/>
+      <c r="H157" s="1"/>
+      <c r="I157" s="1"/>
+      <c r="J157" s="1"/>
+      <c r="K157" s="1"/>
+      <c r="L157" s="1"/>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A158" s="1"/>
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+      <c r="E158" s="1"/>
+      <c r="F158" s="1"/>
+      <c r="G158" s="1"/>
+      <c r="H158" s="1"/>
+      <c r="I158" s="1"/>
+      <c r="J158" s="1"/>
+      <c r="K158" s="1"/>
+      <c r="L158" s="1"/>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A159" s="1"/>
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+      <c r="E159" s="1"/>
+      <c r="F159" s="1"/>
+      <c r="G159" s="1"/>
+      <c r="H159" s="1"/>
+      <c r="I159" s="1"/>
+      <c r="J159" s="1"/>
+      <c r="K159" s="1"/>
+      <c r="L159" s="1"/>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A160" s="1"/>
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+      <c r="E160" s="1"/>
+      <c r="F160" s="1"/>
+      <c r="G160" s="1"/>
+      <c r="H160" s="1"/>
+      <c r="I160" s="1"/>
+      <c r="J160" s="1"/>
+      <c r="K160" s="1"/>
+      <c r="L160" s="1"/>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A161" s="1"/>
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+      <c r="E161" s="1"/>
+      <c r="F161" s="1"/>
+      <c r="G161" s="1"/>
+      <c r="H161" s="1"/>
+      <c r="I161" s="1"/>
+      <c r="J161" s="1"/>
+      <c r="K161" s="1"/>
+      <c r="L161" s="1"/>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A162" s="1"/>
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+      <c r="E162" s="1"/>
+      <c r="F162" s="1"/>
+      <c r="G162" s="1"/>
+      <c r="H162" s="1"/>
+      <c r="I162" s="1"/>
+      <c r="J162" s="1"/>
+      <c r="K162" s="1"/>
+      <c r="L162" s="1"/>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A163" s="1"/>
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+      <c r="E163" s="1"/>
+      <c r="F163" s="1"/>
+      <c r="G163" s="1"/>
+      <c r="H163" s="1"/>
+      <c r="I163" s="1"/>
+      <c r="J163" s="1"/>
+      <c r="K163" s="1"/>
+      <c r="L163" s="1"/>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A164" s="1"/>
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+      <c r="E164" s="1"/>
+      <c r="F164" s="1"/>
+      <c r="G164" s="1"/>
+      <c r="H164" s="1"/>
+      <c r="I164" s="1"/>
+      <c r="J164" s="1"/>
+      <c r="K164" s="1"/>
+      <c r="L164" s="1"/>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A165" s="1"/>
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
+      <c r="E165" s="1"/>
+      <c r="F165" s="1"/>
+      <c r="G165" s="1"/>
+      <c r="H165" s="1"/>
+      <c r="I165" s="1"/>
+      <c r="J165" s="1"/>
+      <c r="K165" s="1"/>
+      <c r="L165" s="1"/>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A166" s="1"/>
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+      <c r="E166" s="1"/>
+      <c r="F166" s="1"/>
+      <c r="G166" s="1"/>
+      <c r="H166" s="1"/>
+      <c r="I166" s="1"/>
+      <c r="J166" s="1"/>
+      <c r="K166" s="1"/>
+      <c r="L166" s="1"/>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A167" s="1"/>
+      <c r="B167" s="1"/>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+      <c r="E167" s="1"/>
+      <c r="F167" s="1"/>
+      <c r="G167" s="1"/>
+      <c r="H167" s="1"/>
+      <c r="I167" s="1"/>
+      <c r="J167" s="1"/>
+      <c r="K167" s="1"/>
+      <c r="L167" s="1"/>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A168" s="1"/>
+      <c r="B168" s="1"/>
+      <c r="C168" s="1"/>
+      <c r="D168" s="1"/>
+      <c r="E168" s="1"/>
+      <c r="F168" s="1"/>
+      <c r="G168" s="1"/>
+      <c r="H168" s="1"/>
+      <c r="I168" s="1"/>
+      <c r="J168" s="1"/>
+      <c r="K168" s="1"/>
+      <c r="L168" s="1"/>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A169" s="1"/>
+      <c r="B169" s="1"/>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1"/>
+      <c r="E169" s="1"/>
+      <c r="F169" s="1"/>
+      <c r="G169" s="1"/>
+      <c r="H169" s="1"/>
+      <c r="I169" s="1"/>
+      <c r="J169" s="1"/>
+      <c r="K169" s="1"/>
+      <c r="L169" s="1"/>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A170" s="1"/>
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+      <c r="E170" s="1"/>
+      <c r="F170" s="1"/>
+      <c r="G170" s="1"/>
+      <c r="H170" s="1"/>
+      <c r="I170" s="1"/>
+      <c r="J170" s="1"/>
+      <c r="K170" s="1"/>
+      <c r="L170" s="1"/>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A171" s="1"/>
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+      <c r="E171" s="1"/>
+      <c r="F171" s="1"/>
+      <c r="G171" s="1"/>
+      <c r="H171" s="1"/>
+      <c r="I171" s="1"/>
+      <c r="J171" s="1"/>
+      <c r="K171" s="1"/>
+      <c r="L171" s="1"/>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A172" s="1"/>
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
+      <c r="E172" s="1"/>
+      <c r="F172" s="1"/>
+      <c r="G172" s="1"/>
+      <c r="H172" s="1"/>
+      <c r="I172" s="1"/>
+      <c r="J172" s="1"/>
+      <c r="K172" s="1"/>
+      <c r="L172" s="1"/>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A173" s="1"/>
+      <c r="B173" s="1"/>
+      <c r="C173" s="1"/>
+      <c r="D173" s="1"/>
+      <c r="E173" s="1"/>
+      <c r="F173" s="1"/>
+      <c r="G173" s="1"/>
+      <c r="H173" s="1"/>
+      <c r="I173" s="1"/>
+      <c r="J173" s="1"/>
+      <c r="K173" s="1"/>
+      <c r="L173" s="1"/>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A174" s="1"/>
+      <c r="B174" s="1"/>
+      <c r="C174" s="1"/>
+      <c r="D174" s="1"/>
+      <c r="E174" s="1"/>
+      <c r="F174" s="1"/>
+      <c r="G174" s="1"/>
+      <c r="H174" s="1"/>
+      <c r="I174" s="1"/>
+      <c r="J174" s="1"/>
+      <c r="K174" s="1"/>
+      <c r="L174" s="1"/>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A175" s="1"/>
+      <c r="B175" s="1"/>
+      <c r="C175" s="1"/>
+      <c r="D175" s="1"/>
+      <c r="E175" s="1"/>
+      <c r="F175" s="1"/>
+      <c r="G175" s="1"/>
+      <c r="H175" s="1"/>
+      <c r="I175" s="1"/>
+      <c r="J175" s="1"/>
+      <c r="K175" s="1"/>
+      <c r="L175" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="136">
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="A25:O25"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
+  <mergeCells count="661">
+    <mergeCell ref="A173:C173"/>
+    <mergeCell ref="D173:F173"/>
+    <mergeCell ref="G173:H173"/>
+    <mergeCell ref="I173:L173"/>
+    <mergeCell ref="A174:C174"/>
+    <mergeCell ref="D174:F174"/>
+    <mergeCell ref="G174:H174"/>
+    <mergeCell ref="I174:L174"/>
+    <mergeCell ref="A175:C175"/>
+    <mergeCell ref="D175:F175"/>
+    <mergeCell ref="G175:H175"/>
+    <mergeCell ref="I175:L175"/>
+    <mergeCell ref="A170:C170"/>
+    <mergeCell ref="D170:F170"/>
+    <mergeCell ref="G170:H170"/>
+    <mergeCell ref="I170:L170"/>
+    <mergeCell ref="A171:C171"/>
+    <mergeCell ref="D171:F171"/>
+    <mergeCell ref="G171:H171"/>
+    <mergeCell ref="I171:L171"/>
+    <mergeCell ref="A172:C172"/>
+    <mergeCell ref="D172:F172"/>
+    <mergeCell ref="G172:H172"/>
+    <mergeCell ref="I172:L172"/>
+    <mergeCell ref="A167:C167"/>
+    <mergeCell ref="D167:F167"/>
+    <mergeCell ref="G167:H167"/>
+    <mergeCell ref="I167:L167"/>
+    <mergeCell ref="A168:C168"/>
+    <mergeCell ref="D168:F168"/>
+    <mergeCell ref="G168:H168"/>
+    <mergeCell ref="I168:L168"/>
+    <mergeCell ref="A169:C169"/>
+    <mergeCell ref="D169:F169"/>
+    <mergeCell ref="G169:H169"/>
+    <mergeCell ref="I169:L169"/>
+    <mergeCell ref="A164:C164"/>
+    <mergeCell ref="D164:F164"/>
+    <mergeCell ref="G164:H164"/>
+    <mergeCell ref="I164:L164"/>
+    <mergeCell ref="A165:C165"/>
+    <mergeCell ref="D165:F165"/>
+    <mergeCell ref="G165:H165"/>
+    <mergeCell ref="I165:L165"/>
+    <mergeCell ref="A166:C166"/>
+    <mergeCell ref="D166:F166"/>
+    <mergeCell ref="G166:H166"/>
+    <mergeCell ref="I166:L166"/>
+    <mergeCell ref="A161:C161"/>
+    <mergeCell ref="D161:F161"/>
+    <mergeCell ref="G161:H161"/>
+    <mergeCell ref="I161:L161"/>
+    <mergeCell ref="A162:C162"/>
+    <mergeCell ref="D162:F162"/>
+    <mergeCell ref="G162:H162"/>
+    <mergeCell ref="I162:L162"/>
+    <mergeCell ref="A163:C163"/>
+    <mergeCell ref="D163:F163"/>
+    <mergeCell ref="G163:H163"/>
+    <mergeCell ref="I163:L163"/>
+    <mergeCell ref="A158:C158"/>
+    <mergeCell ref="D158:F158"/>
+    <mergeCell ref="G158:H158"/>
+    <mergeCell ref="I158:L158"/>
+    <mergeCell ref="A159:C159"/>
+    <mergeCell ref="D159:F159"/>
+    <mergeCell ref="G159:H159"/>
+    <mergeCell ref="I159:L159"/>
+    <mergeCell ref="A160:C160"/>
+    <mergeCell ref="D160:F160"/>
+    <mergeCell ref="G160:H160"/>
+    <mergeCell ref="I160:L160"/>
+    <mergeCell ref="A155:C155"/>
+    <mergeCell ref="D155:F155"/>
+    <mergeCell ref="G155:H155"/>
+    <mergeCell ref="I155:L155"/>
+    <mergeCell ref="A156:C156"/>
+    <mergeCell ref="D156:F156"/>
+    <mergeCell ref="G156:H156"/>
+    <mergeCell ref="I156:L156"/>
+    <mergeCell ref="A157:C157"/>
+    <mergeCell ref="D157:F157"/>
+    <mergeCell ref="G157:H157"/>
+    <mergeCell ref="I157:L157"/>
+    <mergeCell ref="A152:C152"/>
+    <mergeCell ref="D152:F152"/>
+    <mergeCell ref="G152:H152"/>
+    <mergeCell ref="I152:L152"/>
+    <mergeCell ref="A153:C153"/>
+    <mergeCell ref="D153:F153"/>
+    <mergeCell ref="G153:H153"/>
+    <mergeCell ref="I153:L153"/>
+    <mergeCell ref="A154:C154"/>
+    <mergeCell ref="D154:F154"/>
+    <mergeCell ref="G154:H154"/>
+    <mergeCell ref="I154:L154"/>
+    <mergeCell ref="A149:C149"/>
+    <mergeCell ref="D149:F149"/>
+    <mergeCell ref="G149:H149"/>
+    <mergeCell ref="I149:L149"/>
+    <mergeCell ref="A150:C150"/>
+    <mergeCell ref="D150:F150"/>
+    <mergeCell ref="G150:H150"/>
+    <mergeCell ref="I150:L150"/>
+    <mergeCell ref="A151:C151"/>
+    <mergeCell ref="D151:F151"/>
+    <mergeCell ref="G151:H151"/>
+    <mergeCell ref="I151:L151"/>
+    <mergeCell ref="A146:C146"/>
+    <mergeCell ref="D146:F146"/>
+    <mergeCell ref="G146:H146"/>
+    <mergeCell ref="I146:L146"/>
+    <mergeCell ref="A147:C147"/>
+    <mergeCell ref="D147:F147"/>
+    <mergeCell ref="G147:H147"/>
+    <mergeCell ref="I147:L147"/>
+    <mergeCell ref="A148:C148"/>
+    <mergeCell ref="D148:F148"/>
+    <mergeCell ref="G148:H148"/>
+    <mergeCell ref="I148:L148"/>
+    <mergeCell ref="A143:C143"/>
+    <mergeCell ref="D143:F143"/>
+    <mergeCell ref="G143:H143"/>
+    <mergeCell ref="I143:L143"/>
+    <mergeCell ref="A144:C144"/>
+    <mergeCell ref="D144:F144"/>
+    <mergeCell ref="G144:H144"/>
+    <mergeCell ref="I144:L144"/>
+    <mergeCell ref="A145:C145"/>
+    <mergeCell ref="D145:F145"/>
+    <mergeCell ref="G145:H145"/>
+    <mergeCell ref="I145:L145"/>
+    <mergeCell ref="A140:C140"/>
+    <mergeCell ref="D140:F140"/>
+    <mergeCell ref="G140:H140"/>
+    <mergeCell ref="I140:L140"/>
+    <mergeCell ref="A141:C141"/>
+    <mergeCell ref="D141:F141"/>
+    <mergeCell ref="G141:H141"/>
+    <mergeCell ref="I141:L141"/>
+    <mergeCell ref="A142:C142"/>
+    <mergeCell ref="D142:F142"/>
+    <mergeCell ref="G142:H142"/>
+    <mergeCell ref="I142:L142"/>
+    <mergeCell ref="A138:C138"/>
+    <mergeCell ref="D138:F138"/>
+    <mergeCell ref="G138:H138"/>
+    <mergeCell ref="I138:L138"/>
+    <mergeCell ref="A139:C139"/>
+    <mergeCell ref="D139:F139"/>
+    <mergeCell ref="G139:H139"/>
+    <mergeCell ref="I139:L139"/>
+    <mergeCell ref="A137:O137"/>
+    <mergeCell ref="A134:C134"/>
+    <mergeCell ref="D134:F134"/>
+    <mergeCell ref="G134:H134"/>
+    <mergeCell ref="I134:L134"/>
+    <mergeCell ref="A135:C135"/>
+    <mergeCell ref="D135:F135"/>
+    <mergeCell ref="G135:H135"/>
+    <mergeCell ref="I135:L135"/>
+    <mergeCell ref="A136:C136"/>
+    <mergeCell ref="D136:F136"/>
+    <mergeCell ref="G136:H136"/>
+    <mergeCell ref="I136:L136"/>
+    <mergeCell ref="A131:C131"/>
+    <mergeCell ref="D131:F131"/>
+    <mergeCell ref="G131:H131"/>
+    <mergeCell ref="I131:L131"/>
+    <mergeCell ref="A132:C132"/>
+    <mergeCell ref="D132:F132"/>
+    <mergeCell ref="G132:H132"/>
+    <mergeCell ref="I132:L132"/>
+    <mergeCell ref="A133:C133"/>
+    <mergeCell ref="D133:F133"/>
+    <mergeCell ref="G133:H133"/>
+    <mergeCell ref="I133:L133"/>
+    <mergeCell ref="A128:C128"/>
+    <mergeCell ref="D128:F128"/>
+    <mergeCell ref="G128:H128"/>
+    <mergeCell ref="I128:L128"/>
+    <mergeCell ref="A129:C129"/>
+    <mergeCell ref="D129:F129"/>
+    <mergeCell ref="G129:H129"/>
+    <mergeCell ref="I129:L129"/>
+    <mergeCell ref="A130:C130"/>
+    <mergeCell ref="D130:F130"/>
+    <mergeCell ref="G130:H130"/>
+    <mergeCell ref="I130:L130"/>
+    <mergeCell ref="A125:C125"/>
+    <mergeCell ref="D125:F125"/>
+    <mergeCell ref="G125:H125"/>
+    <mergeCell ref="I125:L125"/>
+    <mergeCell ref="A126:C126"/>
+    <mergeCell ref="D126:F126"/>
+    <mergeCell ref="G126:H126"/>
+    <mergeCell ref="I126:L126"/>
+    <mergeCell ref="A127:C127"/>
+    <mergeCell ref="D127:F127"/>
+    <mergeCell ref="G127:H127"/>
+    <mergeCell ref="I127:L127"/>
+    <mergeCell ref="A122:C122"/>
+    <mergeCell ref="D122:F122"/>
+    <mergeCell ref="G122:H122"/>
+    <mergeCell ref="I122:L122"/>
+    <mergeCell ref="A123:C123"/>
+    <mergeCell ref="D123:F123"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="I123:L123"/>
+    <mergeCell ref="A124:C124"/>
+    <mergeCell ref="D124:F124"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="I124:L124"/>
+    <mergeCell ref="A70:O70"/>
+    <mergeCell ref="A83:O83"/>
+    <mergeCell ref="A89:O89"/>
+    <mergeCell ref="A120:O120"/>
+    <mergeCell ref="A121:C121"/>
+    <mergeCell ref="D121:F121"/>
+    <mergeCell ref="G121:H121"/>
+    <mergeCell ref="I121:L121"/>
+    <mergeCell ref="A117:C117"/>
+    <mergeCell ref="D117:F117"/>
+    <mergeCell ref="G117:H117"/>
+    <mergeCell ref="I117:L117"/>
+    <mergeCell ref="A118:C118"/>
+    <mergeCell ref="D118:F118"/>
+    <mergeCell ref="G118:H118"/>
+    <mergeCell ref="I118:L118"/>
+    <mergeCell ref="A119:C119"/>
+    <mergeCell ref="D119:F119"/>
+    <mergeCell ref="G119:H119"/>
+    <mergeCell ref="I119:L119"/>
+    <mergeCell ref="A114:C114"/>
+    <mergeCell ref="D114:F114"/>
+    <mergeCell ref="G114:H114"/>
+    <mergeCell ref="I114:L114"/>
+    <mergeCell ref="A115:C115"/>
+    <mergeCell ref="D115:F115"/>
+    <mergeCell ref="G115:H115"/>
+    <mergeCell ref="I115:L115"/>
+    <mergeCell ref="A116:C116"/>
+    <mergeCell ref="D116:F116"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="I116:L116"/>
+    <mergeCell ref="A111:C111"/>
+    <mergeCell ref="D111:F111"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="I111:L111"/>
+    <mergeCell ref="A112:C112"/>
+    <mergeCell ref="D112:F112"/>
+    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="I112:L112"/>
+    <mergeCell ref="A113:C113"/>
+    <mergeCell ref="D113:F113"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="I113:L113"/>
+    <mergeCell ref="A108:C108"/>
+    <mergeCell ref="D108:F108"/>
+    <mergeCell ref="G108:H108"/>
+    <mergeCell ref="I108:L108"/>
+    <mergeCell ref="A109:C109"/>
+    <mergeCell ref="D109:F109"/>
+    <mergeCell ref="G109:H109"/>
+    <mergeCell ref="I109:L109"/>
+    <mergeCell ref="A110:C110"/>
+    <mergeCell ref="D110:F110"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="I110:L110"/>
+    <mergeCell ref="A105:C105"/>
+    <mergeCell ref="D105:F105"/>
+    <mergeCell ref="G105:H105"/>
+    <mergeCell ref="I105:L105"/>
+    <mergeCell ref="A106:C106"/>
+    <mergeCell ref="D106:F106"/>
+    <mergeCell ref="G106:H106"/>
+    <mergeCell ref="I106:L106"/>
+    <mergeCell ref="A107:C107"/>
+    <mergeCell ref="D107:F107"/>
+    <mergeCell ref="G107:H107"/>
+    <mergeCell ref="I107:L107"/>
+    <mergeCell ref="A102:C102"/>
+    <mergeCell ref="D102:F102"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="I102:L102"/>
+    <mergeCell ref="A103:C103"/>
+    <mergeCell ref="D103:F103"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="I103:L103"/>
+    <mergeCell ref="A104:C104"/>
+    <mergeCell ref="D104:F104"/>
+    <mergeCell ref="G104:H104"/>
+    <mergeCell ref="I104:L104"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="D99:F99"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="I99:L99"/>
+    <mergeCell ref="A100:C100"/>
+    <mergeCell ref="D100:F100"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="I100:L100"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="D101:F101"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="I101:L101"/>
+    <mergeCell ref="A96:C96"/>
+    <mergeCell ref="D96:F96"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="I96:L96"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="D97:F97"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="I97:L97"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="D98:F98"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="I98:L98"/>
+    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="D93:F93"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="I93:L93"/>
+    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="D94:F94"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="I94:L94"/>
+    <mergeCell ref="A95:C95"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="I95:L95"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="D90:F90"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="I90:L90"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="D91:F91"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="I91:L91"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="D92:F92"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="I92:L92"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="D87:F87"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="I87:L87"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="D88:F88"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="I88:L88"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="D84:F84"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="I84:L84"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="I85:L85"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="D86:F86"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="I86:L86"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="I81:L81"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="I82:L82"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="D78:F78"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="I78:L78"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="D79:F79"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="I79:L79"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="I80:L80"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="D75:F75"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="I75:L75"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="D76:F76"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="I76:L76"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="D77:F77"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="I77:L77"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="I72:L72"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="I73:L73"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="I74:L74"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="D69:F69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="I69:L69"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="I71:L71"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="D66:F66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="I66:L66"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="I67:L67"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="D68:F68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="I68:L68"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="I63:L63"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="I64:L64"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="I65:L65"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="I60:L60"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="I61:L61"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="I62:L62"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="I58:L58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="I59:L59"/>
+    <mergeCell ref="A57:O57"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="I54:L54"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="I55:L55"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="I56:L56"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:L48"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:L50"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:L45"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:L47"/>
+    <mergeCell ref="A46:O46"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:L42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:L43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I44:L44"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:L41"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:L30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D31:F31"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="A7:C7"/>
@@ -1407,6 +5291,18 @@
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="D37:F37"/>
     <mergeCell ref="G34:H34"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="A25:O25"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
     <mergeCell ref="I34:L34"/>
     <mergeCell ref="G35:H35"/>
     <mergeCell ref="I35:L35"/>
@@ -1419,95 +5315,10 @@
     <mergeCell ref="G33:H33"/>
     <mergeCell ref="I33:L33"/>
     <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:L30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:L31"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:L29"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:L4"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="I136" r:id="rId1" xr:uid="{86C427EF-DCF1-4C69-B9B5-F8A428A97644}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>